--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3BAAC9-F4B9-4801-80FB-CBE3A7CB8150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B919BC-DE2B-460D-838B-775AE9553DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>技能的序号</t>
   </si>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄背包格子数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备背包格子数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultValue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +497,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -505,7 +521,9 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -523,7 +541,9 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -541,7 +561,9 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -559,7 +581,9 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6"/>
+      <c r="F6">
+        <v>10</v>
+      </c>
       <c r="G6"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -580,6 +604,9 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -587,13 +614,15 @@
       <c r="C8">
         <v>1003</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8"/>
+      <c r="F8">
+        <v>10</v>
+      </c>
       <c r="G8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -602,10 +631,16 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C9"/>
+      <c r="C9">
+        <v>1004</v>
+      </c>
       <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
       <c r="G9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -614,10 +649,16 @@
       <c r="L9"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C10"/>
+      <c r="C10">
+        <v>1005</v>
+      </c>
       <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
       <c r="G10"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B919BC-DE2B-460D-838B-775AE9553DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297E52B-8457-458C-AA3D-151DCC0B6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>技能的序号</t>
   </si>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>StarTexture</t>
-  </si>
-  <si>
     <t>宝石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -102,6 +99,37 @@
   </si>
   <si>
     <t>DefaultValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄背包格子数扩展包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备背包格子数扩展包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#计数方式1叠加2不叠加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +218,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -522,10 +553,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -542,10 +577,14 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -564,8 +603,12 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -584,8 +627,10 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -599,32 +644,39 @@
         <v>1002</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C8">
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="5"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -636,13 +688,15 @@
       </c>
       <c r="D9"/>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="5"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -654,25 +708,35 @@
       </c>
       <c r="D10"/>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C11"/>
+      <c r="C11">
+        <v>1006</v>
+      </c>
       <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
       <c r="G11"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -680,12 +744,20 @@
       <c r="N11"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C12"/>
+      <c r="C12">
+        <v>1007</v>
+      </c>
       <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
       <c r="G12"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12"/>
       <c r="K12"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297E52B-8457-458C-AA3D-151DCC0B6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10265D3-5F9E-4554-9E02-967709454BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8270" yWindow="7800" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="道具Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
-    <t>技能的序号</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -130,6 +127,10 @@
   </si>
   <si>
     <t>#计数方式1叠加2不叠加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -544,22 +545,22 @@
   <sheetData>
     <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -568,22 +569,22 @@
     </row>
     <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -592,22 +593,22 @@
     </row>
     <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -619,10 +620,10 @@
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -638,16 +639,16 @@
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -659,16 +660,16 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -688,7 +689,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -708,7 +709,7 @@
       </c>
       <c r="D10"/>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -728,7 +729,7 @@
       </c>
       <c r="D11"/>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -749,7 +750,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>10</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10265D3-5F9E-4554-9E02-967709454BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB6B5F-D3AE-4C0E-96E9-5F3ED2C09E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="7800" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具Config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>道具序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +537,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -765,12 +773,22 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="C13">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
       <c r="G13"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB6B5F-D3AE-4C0E-96E9-5F3ED2C09E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE23AF7-3BA2-43DE-8C82-BF08216A7887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="5660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具Config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>宝石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PowerTexture</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,6 +135,22 @@
   </si>
   <si>
     <t>经验值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化结晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石，钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +549,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -553,7 +565,7 @@
   <sheetData>
     <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -562,13 +574,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -586,13 +598,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -653,10 +665,10 @@
         <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -668,16 +680,16 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -697,7 +709,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -717,7 +729,7 @@
       </c>
       <c r="D10"/>
       <c r="E10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -737,7 +749,7 @@
       </c>
       <c r="D11"/>
       <c r="E11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -758,7 +770,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -777,10 +789,10 @@
         <v>1008</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -792,30 +804,56 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14"/>
+      <c r="C14">
+        <v>1009</v>
+      </c>
       <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C15"/>
+      <c r="C15">
+        <v>1010</v>
+      </c>
       <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16"/>
+      <c r="C16">
+        <v>1011</v>
+      </c>
       <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="3:9" ht="15" x14ac:dyDescent="0.35">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE23AF7-3BA2-43DE-8C82-BF08216A7887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2193629-AD8A-4004-A00A-191622314A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9690" yWindow="5660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -150,8 +150,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>活跃度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>每日活跃度点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周活跃度点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
   </si>
 </sst>
 </file>
@@ -549,7 +556,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -648,7 +655,9 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
@@ -673,6 +682,9 @@
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
@@ -694,7 +706,9 @@
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -714,7 +728,9 @@
       <c r="F9">
         <v>200</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -734,7 +750,9 @@
       <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
@@ -754,7 +772,9 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
@@ -775,7 +795,9 @@
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
@@ -797,7 +819,9 @@
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
@@ -814,7 +838,9 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14"/>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
@@ -831,7 +857,9 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15"/>
+      <c r="G15" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
@@ -857,12 +885,22 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17"/>
+      <c r="C17">
+        <v>1012</v>
+      </c>
       <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.35">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2193629-AD8A-4004-A00A-191622314A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468893E-8947-4409-8778-5818330A6222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9690" yWindow="5660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>钻石</t>
+  </si>
+  <si>
+    <t>每日赠送体力的额度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +560,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -904,12 +908,24 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18" s="5"/>
+      <c r="C18">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="3:9" ht="15" x14ac:dyDescent="0.35">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,175 +1,191 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468893E-8947-4409-8778-5818330A6222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="5660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="道具Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+  <si>
+    <t>道具序号</t>
+  </si>
+  <si>
+    <t>图标资源</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>计数方式</t>
+  </si>
+  <si>
+    <t>合图地址</t>
+  </si>
+  <si>
+    <t>道具小类型</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>IconImageStr</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CountType</t>
+  </si>
+  <si>
+    <t>AtlasSprite</t>
+  </si>
+  <si>
+    <t>MinType</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goldtexture</t>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
   <si>
     <t>#货币类型 1金币2钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImageStr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goldtexture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>宝石，钻石</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>#计数方式1叠加2不叠加</t>
   </si>
   <si>
     <t>PowerTexture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>体力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#道具小类型1，2头像</t>
   </si>
   <si>
     <t>英雄背包格子数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备背包格子数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英雄背包格子数扩展包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备背包格子数扩展包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#计数方式1叠加2不叠加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>经验值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化结晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石，钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>活动材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每日活跃度点数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每周活跃度点数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
   </si>
   <si>
     <t>每日赠送体力的额度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_icon_hero001</t>
+  </si>
+  <si>
+    <t>头像1</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>Assets/Res/HeroCards/HeroCardSpriteAtlas.spriteatlas</t>
+  </si>
+  <si>
+    <t>hero_icon_hero002</t>
+  </si>
+  <si>
+    <t>头像2</t>
+  </si>
+  <si>
+    <t>hero_icon_hero003</t>
+  </si>
+  <si>
+    <t>头像3</t>
+  </si>
+  <si>
+    <t>hero_icon_hero007</t>
+  </si>
+  <si>
+    <t>头像4</t>
+  </si>
+  <si>
+    <t>hero_icon_hero005</t>
+  </si>
+  <si>
+    <t>头像5</t>
+  </si>
+  <si>
+    <t>hero_icon_hero006</t>
+  </si>
+  <si>
+    <t>头像6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +197,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -189,13 +204,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,12 +217,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +371,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,11 +566,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,25 +824,72 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -551,504 +1176,656 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.2788461538462" style="3" customWidth="1"/>
+    <col min="5" max="5" width="65.2115384615385" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.1057692307692" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.8" spans="3:12">
       <c r="C6">
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" customFormat="1" ht="16.8" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="I7" s="7"/>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1003</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8"/>
+      <c r="I8" s="7"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C9">
         <v>1004</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9"/>
+      <c r="I9" s="7"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.8" spans="3:12">
       <c r="C10">
         <v>1005</v>
       </c>
       <c r="D10"/>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10"/>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10">
+        <v>1</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.8" spans="3:14">
       <c r="C11">
         <v>1006</v>
       </c>
       <c r="D11"/>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11"/>
+      <c r="I11" s="7"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.8" spans="3:12">
       <c r="C12">
         <v>1007</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="8">
         <v>2</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12"/>
+      <c r="I12" s="7"/>
+      <c r="J12">
+        <v>1</v>
+      </c>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.8" spans="3:10">
       <c r="C13">
         <v>1008</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>26</v>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="3:10">
       <c r="C14">
         <v>1009</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="3:10">
       <c r="C15">
         <v>1010</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="6" t="s">
-        <v>29</v>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="G15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="3:10">
       <c r="C16">
         <v>1011</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="6" t="s">
-        <v>30</v>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="3:10">
       <c r="C17">
         <v>1012</v>
       </c>
       <c r="D17"/>
-      <c r="E17" s="6" t="s">
-        <v>31</v>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="3:10">
       <c r="C18">
         <v>1013</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="3:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="3:10">
+      <c r="C19">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="3:10">
+      <c r="C20">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="3:10">
+      <c r="C21">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="3:10">
+      <c r="C22">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="3:10">
+      <c r="C23">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="3:10">
+      <c r="C24">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="3:9">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" ht="16.8" spans="3:9">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" ht="16.8" spans="3:9">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" ht="16.8" spans="3:9">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="3:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" ht="16.8" spans="3:9">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>